--- a/medicine/Sexualité et sexologie/Grille_d'orientation_sexuelle_de_Klein/Grille_d'orientation_sexuelle_de_Klein.xlsx
+++ b/medicine/Sexualité et sexologie/Grille_d'orientation_sexuelle_de_Klein/Grille_d'orientation_sexuelle_de_Klein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grille d'orientation sexuelle de Klein (Klein Sexual Orientation Grid, KSOG en anglais) a été développée par le Dr Fritz Klein, sexologue spécialisé dans l'étude de la bisexualité. 
-Klein décrit d'abord la KSOG dans son livre 1978 L'Option bisexuelle[1],[2],[3],[4]. 
+Klein décrit d'abord la KSOG dans son livre 1978 L'Option bisexuelle. 
 La seconde édition date de 1993. Il tente de mesurer l'orientation sexuelle en élargissant l'échelle de Kinsey qui catégorise l'attirance sexuelle, en fonction de l’histoire de la personne, de 0 (exclusivement hétérosexuelle) à 6 (exclusivement homosexuelle).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contrairement à l'échelle de Kinsey, la grille de Klein étudie l'orientation sexuelle en trois périodes de temps et par rapport à sept facteurs. 
-De ce travail Reinhardt, dit dans The Bisexual Opinion : "Le travail du docteur Klein présente un continium de préférences sexuelles, sociales et émotionnelles tout au long des trajectoires de vie"[5].
-La KSOG est souvent utilisé comme un outil dans la recherche[6],[7]. Les études utilisant la KSOG ont utilisé le partitionnement de données pour étudier les tendances dans les vingt et un des paramètres de la KSOG et amène à dégager 5 grandes étiquettes/catégories  de l'orientation sexuelle : 
+De ce travail Reinhardt, dit dans The Bisexual Opinion : "Le travail du docteur Klein présente un continium de préférences sexuelles, sociales et émotionnelles tout au long des trajectoires de vie".
+La KSOG est souvent utilisé comme un outil dans la recherche,. Les études utilisant la KSOG ont utilisé le partitionnement de données pour étudier les tendances dans les vingt et un des paramètres de la KSOG et amène à dégager 5 grandes étiquettes/catégories  de l'orientation sexuelle : 
 hétéro (straight),
 bi-hétéro,
 bi-bi,
 bi-homo,
-homo (gay)[8],[9] (en anglais américain gay signifie homo).</t>
+homo (gay), (en anglais américain gay signifie homo).</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>La grille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grille[5] se décompose en trois parties : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grille se décompose en trois parties : 
 passé (du début de l'adolescence jusqu'à il y a un an avant le test),
 présent (dans les 12 derniers mois),
 et idéal (ce que vous choisiriez si vous aviez complètement le choix).
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Exploitation des résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chaque colonne (passé, présent, idéal) est totalisée sur 49.
 Plus le chiffre est faible (vers 7), plus la tendance hétérosexuelle est marquée.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Les sexes de Klein sur un tableau HLGBT</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut organiser les résultats du test (ou les évaluations de ceux-ci en fonction de leur biographie) sur un tableau 3 x 3 à double entrée dont la structure est la suivante :
 </t>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,10 +670,12 @@
           <t>Réception par les psychologues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est grâce à cet outil que Fred Klein a assis sa réputation de spécialiste de la bisexualité[10]. Cet outil s'est popularisé parmi les militants, les éducateurs et les thérapeutes, parce qu'il reconnaît la complexité de la sexualité humaine et en particulier la fluidité sexuelle dans le temps[11].
-Cependant, en raison de sa complexité, il a été peu employé et diffusé parmi les chercheurs et reste peu familier à beaucoup d'entre eux[12].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est grâce à cet outil que Fred Klein a assis sa réputation de spécialiste de la bisexualité. Cet outil s'est popularisé parmi les militants, les éducateurs et les thérapeutes, parce qu'il reconnaît la complexité de la sexualité humaine et en particulier la fluidité sexuelle dans le temps.
+Cependant, en raison de sa complexité, il a été peu employé et diffusé parmi les chercheurs et reste peu familier à beaucoup d'entre eux.
 </t>
         </is>
       </c>
@@ -664,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grille_d%27orientation_sexuelle_de_Klein</t>
+          <t>Grille_d'orientation_sexuelle_de_Klein</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,9 +704,11 @@
           <t>Lacunes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Klein, tout en insistant sur le fait que la grille a exploré beaucoup plus de dimensions que les échelles précédentes, a reconnu qu'il a omis les aspects suivants pouvant intervenir dans la définition de l'orientation sexuelle[13],[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Klein, tout en insistant sur le fait que la grille a exploré beaucoup plus de dimensions que les échelles précédentes, a reconnu qu'il a omis les aspects suivants pouvant intervenir dans la définition de l'orientation sexuelle, :
 L'âge du partenaire ;
 Amour et amitié n'étaient pas différenciés dans la variable de préférence émotionnelle ;
 L'attraction sexuelle ne fait pas de distinction entre le désir sexuel et l'état affectif amoureux ou limerence ;
